--- a/Scenario 5.xlsx
+++ b/Scenario 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/Multiple_outcomes_pregnancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1673A6-C893-B845-A78D-707827EA92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC184DAC-9C8C-B243-A335-6624DFF92EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,14 +926,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <f>1-C2-B2</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -944,14 +944,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>1-C3-B3</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -962,14 +962,14 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f>1-C4-B4</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -980,14 +980,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f>1-C5-B5</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E296094E-C959-F34D-935C-7330539695AA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1708,14 +1708,14 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f>1-D2-C2</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1726,14 +1726,14 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">1-D3-C3</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1744,14 +1744,14 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1762,14 +1762,14 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/Scenario 5.xlsx
+++ b/Scenario 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/Multiple_outcomes_pregnancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC184DAC-9C8C-B243-A335-6624DFF92EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19644BE6-9C15-F541-B188-916745298DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1" sheetId="6" r:id="rId1"/>
@@ -485,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -631,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E296094E-C959-F34D-935C-7330539695AA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2484,8 +2484,8 @@
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="D42">
-        <f>1*Phase1!C42</f>
-        <v>0.99892000000000003</v>
+        <f>1-C42</f>
+        <v>0.99865000000000004</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5204,15 +5204,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F311363ECB49C45BE6A1ABA8AA4E3C9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcab42b681813b96043c0b869577973d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7962a6ab-b148-4fb3-9b24-47c6fd02e414" xmlns:ns3="78c38721-2d96-443e-bd32-82c62d4eed8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36b52368701cf0b88ba8d42da5a3441" ns2:_="" ns3:_="">
     <xsd:import namespace="7962a6ab-b148-4fb3-9b24-47c6fd02e414"/>
@@ -5437,15 +5428,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB1F164-DDC9-4622-8588-A1C1F4AFED79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5462,4 +5454,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scenario 5.xlsx
+++ b/Scenario 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/Multiple_outcomes_pregnancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415C2BD4-A84E-4A4D-8BF3-B8FECA78EB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFCC1F7-4160-474F-96D3-74F0E13EBB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="8" r:id="rId1"/>
@@ -730,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D934933-498D-0241-A3CA-9112F6764FEB}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,14 +1295,14 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D41" si="0">1-C2-B2</f>
-        <v>0.95</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,14 +1310,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,14 +1325,14 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1340,14 +1340,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1355,14 +1355,14 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,14 +1370,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,14 +1385,14 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,14 +1400,14 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1415,14 +1415,14 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,14 +1430,14 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="C2">
         <f>Phase1!B2*README!$C$21</f>
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f>1-D2-C2</f>
-        <v>0.95</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,14 +1972,14 @@
       </c>
       <c r="C3">
         <f>Phase1!B3*README!$C$21</f>
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E5" si="0">1-D3-C3</f>
-        <v>0.95</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="C4">
         <f>Phase1!B4*README!$C$21</f>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2010,14 +2010,14 @@
       </c>
       <c r="C5">
         <f>Phase1!B5*README!$C$21</f>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="C6">
         <f>Phase1!B6*README!$C$21</f>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6" si="1">1-D6-C6</f>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2048,14 +2048,14 @@
       </c>
       <c r="C7">
         <f>Phase1!B7*README!$C$21</f>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E41" si="2">1-C7-D7</f>
-        <v>0.97499999999999998</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2067,14 +2067,14 @@
       </c>
       <c r="C8">
         <f>Phase1!B8*README!$C$21</f>
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2086,14 +2086,14 @@
       </c>
       <c r="C9">
         <f>Phase1!B9*README!$C$21</f>
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2105,14 +2105,14 @@
       </c>
       <c r="C10">
         <f>Phase1!B10*README!$C$21</f>
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,14 +2124,14 @@
       </c>
       <c r="C11">
         <f>Phase1!B11*README!$C$21</f>
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3683,6 +3683,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7962a6ab-b148-4fb3-9b24-47c6fd02e414">
@@ -3693,7 +3702,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F311363ECB49C45BE6A1ABA8AA4E3C9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02dcd5175aa8e95f4ce1fe251e7b47bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7962a6ab-b148-4fb3-9b24-47c6fd02e414" xmlns:ns3="78c38721-2d96-443e-bd32-82c62d4eed8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fa1448a446e559a75bc6225a0eecaac" ns2:_="" ns3:_="">
     <xsd:import namespace="7962a6ab-b148-4fb3-9b24-47c6fd02e414"/>
@@ -3942,16 +3951,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BA6937D-DF9A-4450-8BC0-EAF117E29439}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="78c38721-2d96-443e-bd32-82c62d4eed8a"/>
@@ -3968,7 +3976,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCEF1051-AC3A-44A0-AF47-DF07AD49B1DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3985,12 +3993,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC4DEEE-E4C1-4BDA-9F3A-10B42714F00A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>